--- a/mapping-taxonomy-Silva-etal/mappingBtwMotivations.xlsx
+++ b/mapping-taxonomy-Silva-etal/mappingBtwMotivations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8618FBEE-3515-D24F-A0B0-228CFFA0F90D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="12980" yWindow="3000" windowWidth="30420" windowHeight="23080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,25 +25,25 @@
     <t xml:space="preserve">Silva et al. </t>
   </si>
   <si>
-    <t xml:space="preserve">Why Developers Refactor Source Code: A Mining-based Study</t>
+    <t>Why Developers Refactor Source Code: A Mining-based Study</t>
   </si>
   <si>
     <t xml:space="preserve">Type of Refactoring </t>
   </si>
   <si>
-    <t xml:space="preserve">Motivation / Theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category Depth and Mapping (green -&gt; complete coverage white -&gt; partial coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTRACT METHOD</t>
+    <t>Motivation / Theme</t>
+  </si>
+  <si>
+    <t>Category Depth and Mapping (green -&gt; complete coverage white -&gt; partial coverage</t>
+  </si>
+  <si>
+    <t>EXTRACT METHOD</t>
   </si>
   <si>
     <t xml:space="preserve">Extract reusable method </t>
   </si>
   <si>
-    <t xml:space="preserve">3, Foster code reuse</t>
+    <t>3, Foster code reuse</t>
   </si>
   <si>
     <t xml:space="preserve">Introduce alternative method signature </t>
@@ -52,100 +52,100 @@
     <t xml:space="preserve">Decompose method to improve readability </t>
   </si>
   <si>
-    <t xml:space="preserve">1, Understandability &amp; Readability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, Better distribute responsibilities</t>
+    <t>1, Understandability &amp; Readability</t>
+  </si>
+  <si>
+    <t>3, Better distribute responsibilities</t>
   </si>
   <si>
     <t xml:space="preserve">Facilitate extension </t>
   </si>
   <si>
-    <t xml:space="preserve">3, For implementing a new feature</t>
+    <t>3, For implementing a new feature</t>
   </si>
   <si>
     <t xml:space="preserve">3, For bug fxing </t>
   </si>
   <si>
-    <t xml:space="preserve">3, Improve extensibility</t>
+    <t>3, Improve extensibility</t>
   </si>
   <si>
     <t xml:space="preserve">Remove duplication </t>
   </si>
   <si>
-    <t xml:space="preserve">3, Remove clones</t>
+    <t>3, Remove clones</t>
   </si>
   <si>
     <t xml:space="preserve">Replace Method preserving backward compatibility </t>
   </si>
   <si>
-    <t xml:space="preserve">2, To promote API compatibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, To use more specific names</t>
+    <t>2, To promote API compatibility</t>
+  </si>
+  <si>
+    <t>3, To use more specific names</t>
   </si>
   <si>
     <t xml:space="preserve">Improve testability </t>
   </si>
   <si>
-    <t xml:space="preserve">2, To simplify testing activities</t>
+    <t>2, To simplify testing activities</t>
   </si>
   <si>
     <t xml:space="preserve">Enable overriding </t>
   </si>
   <si>
-    <t xml:space="preserve">3, Allow reuse from subclass</t>
+    <t>3, Allow reuse from subclass</t>
   </si>
   <si>
     <t xml:space="preserve">Enable recursion </t>
   </si>
   <si>
-    <t xml:space="preserve">unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduce factory method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, Introduce design pattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduce async operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, Improve performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVE CLASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move class to appropriate container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, Improve modularization</t>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>Introduce factory method</t>
+  </si>
+  <si>
+    <t>2, Introduce design pattern</t>
+  </si>
+  <si>
+    <t>Introduce async operation</t>
+  </si>
+  <si>
+    <t>2, Improve performance</t>
+  </si>
+  <si>
+    <t>MOVE CLASS</t>
+  </si>
+  <si>
+    <t>Move class to appropriate container</t>
+  </si>
+  <si>
+    <t>3, Improve modularization</t>
   </si>
   <si>
     <t xml:space="preserve">Introduce sub-package </t>
   </si>
   <si>
-    <t xml:space="preserve">4, Create a more cohesive package</t>
+    <t>4, Create a more cohesive package</t>
   </si>
   <si>
     <t xml:space="preserve">Convert to top-level container </t>
   </si>
   <si>
-    <t xml:space="preserve">uclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove inner classes from deprecated container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove from public API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4, Modularize API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert to inner class</t>
+    <t>uclear</t>
+  </si>
+  <si>
+    <t>Remove inner classes from deprecated container</t>
+  </si>
+  <si>
+    <t>Remove from public API</t>
+  </si>
+  <si>
+    <t>4, Modularize API</t>
+  </si>
+  <si>
+    <t>Convert to inner class</t>
   </si>
   <si>
     <t xml:space="preserve">Eliminate dependencies </t>
@@ -157,19 +157,19 @@
     <t xml:space="preserve">Eliminate redundant sub-package </t>
   </si>
   <si>
-    <t xml:space="preserve">4, Remove unneeded packages</t>
+    <t>4, Remove unneeded packages</t>
   </si>
   <si>
     <t xml:space="preserve">Backward compatibility </t>
   </si>
   <si>
-    <t xml:space="preserve">MOVE ATTRIBUTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move attribute to appropriate class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RENAME PACKAGE</t>
+    <t>MOVE ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>Move attribute to appropriate class</t>
+  </si>
+  <si>
+    <t>RENAME PACKAGE</t>
   </si>
   <si>
     <t xml:space="preserve">Improve package name </t>
@@ -178,46 +178,46 @@
     <t xml:space="preserve">Enforce naming consistency </t>
   </si>
   <si>
-    <t xml:space="preserve">3, To keep consistency in naming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, To adhere to naming convention</t>
+    <t>3, To keep consistency in naming</t>
+  </si>
+  <si>
+    <t>3, To adhere to naming convention</t>
   </si>
   <si>
     <t xml:space="preserve">Move package to appropriate container </t>
   </si>
   <si>
-    <t xml:space="preserve">MOVE METHOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move method to appropriate class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move method to enable reuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, Foster code reuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminate dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enable overriding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, Overriding over inheritance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INLINE METHOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminate unnecessary method</t>
+    <t>MOVE METHOD</t>
+  </si>
+  <si>
+    <t>Move method to appropriate class</t>
+  </si>
+  <si>
+    <t>Move method to enable reuse</t>
+  </si>
+  <si>
+    <t>2, Foster code reuse</t>
+  </si>
+  <si>
+    <t>Eliminate dependencies</t>
+  </si>
+  <si>
+    <t>Enable overriding</t>
+  </si>
+  <si>
+    <t>3, Overriding over inheritance</t>
+  </si>
+  <si>
+    <t>INLINE METHOD</t>
+  </si>
+  <si>
+    <t>Eliminate unnecessary method</t>
   </si>
   <si>
     <t xml:space="preserve">3, Remove unnecessary code </t>
   </si>
   <si>
-    <t xml:space="preserve">Caller becomes trivial</t>
+    <t>Caller becomes trivial</t>
   </si>
   <si>
     <t xml:space="preserve">Improve readability </t>
@@ -226,40 +226,37 @@
     <t xml:space="preserve">1, Understandability &amp; Readability </t>
   </si>
   <si>
-    <t xml:space="preserve">EXTRACT SUPERCLASS</t>
+    <t>EXTRACT SUPERCLASS</t>
   </si>
   <si>
     <t xml:space="preserve">Extract common state/behavior </t>
   </si>
   <si>
-    <t xml:space="preserve">4, By extracting superclass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4, Reduce coupling between packages</t>
+    <t>4, Reduce coupling between packages</t>
   </si>
   <si>
     <t xml:space="preserve">Decompose class </t>
   </si>
   <si>
-    <t xml:space="preserve">PULL UP METHOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move up common methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, DRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PULL UP ATTRIBUTE</t>
+    <t>PULL UP METHOD</t>
+  </si>
+  <si>
+    <t>Move up common methods</t>
+  </si>
+  <si>
+    <t>2, DRY</t>
+  </si>
+  <si>
+    <t>PULL UP ATTRIBUTE</t>
   </si>
   <si>
     <t xml:space="preserve">Move up common attributes </t>
   </si>
   <si>
-    <t xml:space="preserve">EXTRACT INTERFACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facilitate extension</t>
+    <t>EXTRACT INTERFACE</t>
+  </si>
+  <si>
+    <t>Facilitate extension</t>
   </si>
   <si>
     <t xml:space="preserve">4, By extracting interface </t>
@@ -268,7 +265,7 @@
     <t xml:space="preserve">Enable dependency injection </t>
   </si>
   <si>
-    <t xml:space="preserve">PUSH DOWN ATTRIBUTE</t>
+    <t>PUSH DOWN ATTRIBUTE</t>
   </si>
   <si>
     <t xml:space="preserve">Specialized implementation </t>
@@ -277,20 +274,20 @@
     <t xml:space="preserve">3, Facilitate subclassing </t>
   </si>
   <si>
-    <t xml:space="preserve">PUSH DOWN METHOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialized implementation</t>
+    <t>PUSH DOWN METHOD</t>
+  </si>
+  <si>
+    <t>Specialized implementation</t>
+  </si>
+  <si>
+    <t>3, Introduce generalization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -299,22 +296,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
@@ -322,7 +304,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF44546A"/>
       <name val="Calibri"/>
@@ -344,7 +326,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -373,14 +355,14 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -389,7 +371,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -398,7 +380,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -410,97 +392,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="5">
+    <cellStyle name="Excel Built-in Good" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Excel Built-in Heading 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="20"/>
-    <cellStyle name="Excel Built-in Heading 2" xfId="21"/>
-    <cellStyle name="Excel Built-in Good" xfId="22"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="23"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -559,579 +484,887 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="36.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="81.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.49"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="81.5" customWidth="1"/>
+    <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="0" t="s">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="0" t="s">
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="C55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="4" t="s">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="B57" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -1147,12 +1380,7 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A60:G60"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mapping-taxonomy-Silva-etal/mappingBtwMotivations.xlsx
+++ b/mapping-taxonomy-Silva-etal/mappingBtwMotivations.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8618FBEE-3515-D24F-A0B0-228CFFA0F90D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="12980" yWindow="3000" windowWidth="30420" windowHeight="23080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="465" windowWidth="25740" windowHeight="19215" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
   <si>
     <t xml:space="preserve">Silva et al. </t>
   </si>
@@ -43,30 +45,18 @@
     <t xml:space="preserve">Extract reusable method </t>
   </si>
   <si>
-    <t>3, Foster code reuse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Introduce alternative method signature </t>
   </si>
   <si>
     <t xml:space="preserve">Decompose method to improve readability </t>
   </si>
   <si>
-    <t>1, Understandability &amp; Readability</t>
-  </si>
-  <si>
     <t>3, Better distribute responsibilities</t>
   </si>
   <si>
     <t xml:space="preserve">Facilitate extension </t>
   </si>
   <si>
-    <t>3, For implementing a new feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, For bug fxing </t>
-  </si>
-  <si>
     <t>3, Improve extensibility</t>
   </si>
   <si>
@@ -82,9 +72,6 @@
     <t>2, To promote API compatibility</t>
   </si>
   <si>
-    <t>3, To use more specific names</t>
-  </si>
-  <si>
     <t xml:space="preserve">Improve testability </t>
   </si>
   <si>
@@ -106,9 +93,6 @@
     <t>Introduce factory method</t>
   </si>
   <si>
-    <t>2, Introduce design pattern</t>
-  </si>
-  <si>
     <t>Introduce async operation</t>
   </si>
   <si>
@@ -205,9 +189,6 @@
     <t>Enable overriding</t>
   </si>
   <si>
-    <t>3, Overriding over inheritance</t>
-  </si>
-  <si>
     <t>INLINE METHOD</t>
   </si>
   <si>
@@ -223,9 +204,6 @@
     <t xml:space="preserve">Improve readability </t>
   </si>
   <si>
-    <t xml:space="preserve">1, Understandability &amp; Readability </t>
-  </si>
-  <si>
     <t>EXTRACT SUPERCLASS</t>
   </si>
   <si>
@@ -244,9 +222,6 @@
     <t>Move up common methods</t>
   </si>
   <si>
-    <t>2, DRY</t>
-  </si>
-  <si>
     <t>PULL UP ATTRIBUTE</t>
   </si>
   <si>
@@ -281,13 +256,43 @@
   </si>
   <si>
     <t>3, Introduce generalization</t>
+  </si>
+  <si>
+    <t>1, Improve Understandability &amp; Readability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Improve Understandability &amp; Readability </t>
+  </si>
+  <si>
+    <t>2, For implementing a new feature</t>
+  </si>
+  <si>
+    <t>3, Introduce design pattern</t>
+  </si>
+  <si>
+    <t>3, Use overriding over inheritance</t>
+  </si>
+  <si>
+    <t>3, Remove code smell</t>
+  </si>
+  <si>
+    <t>3, Refactoring confusing code</t>
+  </si>
+  <si>
+    <t>3, Remove code smells</t>
+  </si>
+  <si>
+    <t>2, Improve Naming</t>
+  </si>
+  <si>
+    <t>3, Adhere to DRY principle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -329,6 +334,13 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -399,7 +411,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -407,6 +419,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,11 +431,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Excel Built-in Good" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Excel Built-in Heading 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Excel Built-in Good" xfId="3"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="1"/>
+    <cellStyle name="Excel Built-in Heading 2" xfId="2"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="4"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -801,48 +814,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="5" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="45.875" customWidth="1"/>
+    <col min="3" max="3" width="30.125" customWidth="1"/>
+    <col min="4" max="5" width="36.625" customWidth="1"/>
     <col min="6" max="6" width="81.5" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -850,528 +863,544 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="D50" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>72</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B54" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>75</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B57" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="D57" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
